--- a/Gestao de Vendas x SAP/Extrato de Conta Corrente/Contabilizacao Extrato.xlsx
+++ b/Gestao de Vendas x SAP/Extrato de Conta Corrente/Contabilizacao Extrato.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>D</t>
   </si>
@@ -24,18 +24,12 @@
     <t>C</t>
   </si>
   <si>
-    <t>Taxa de administração do cartão cobrado pela adquirente</t>
-  </si>
-  <si>
     <t>Banco</t>
   </si>
   <si>
     <t>Taxa de conveniencia</t>
   </si>
   <si>
-    <t>Valor da venda</t>
-  </si>
-  <si>
     <t>Valor do ingresso</t>
   </si>
   <si>
@@ -88,6 +82,30 @@
   </si>
   <si>
     <t>Valor do Simples</t>
+  </si>
+  <si>
+    <t>Valor total da venda</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Valor de Repasse ao Produtor</t>
+  </si>
+  <si>
+    <t>Receita</t>
+  </si>
+  <si>
+    <t>Despesa</t>
+  </si>
+  <si>
+    <t>Taxa de administração da adquirente (Cielo)</t>
+  </si>
+  <si>
+    <t>Repasse</t>
+  </si>
+  <si>
+    <t>Receita (1% a mais na taxa)</t>
   </si>
 </sst>
 </file>
@@ -97,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +140,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,7 +202,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -188,21 +214,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -510,7 +537,9 @@
     <col min="1" max="1" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="29.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -522,130 +551,135 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
         <f>+G2</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F2" s="4">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
         <f>+F2*$G$1</f>
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3"/>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C4" si="0">+G3</f>
-        <v>3.5</v>
+        <f t="shared" ref="C3:C9" si="0">+G3</f>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="4">
-        <f>(F2-F6)*0.025</f>
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <f>+F3*$G$1</f>
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4"/>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>146.25</v>
-      </c>
-      <c r="F4" s="4">
-        <f>+F2-F3-F7</f>
-        <v>146.25</v>
-      </c>
-      <c r="G4" s="1">
-        <f>+F4*$G$1</f>
-        <v>146.25</v>
-      </c>
+        <f>+SUM(C2:C3)</f>
+        <v>60</v>
+      </c>
+      <c r="D4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <f>+F5*C4</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6"/>
       <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" ref="C6:C9" si="1">+G6</f>
-        <v>10</v>
-      </c>
-      <c r="D6"/>
-      <c r="F6" s="4">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16">
+        <f>+C4-C5</f>
+        <v>58.5</v>
+      </c>
+      <c r="F6" s="4" t="e">
+        <f>+F2-#REF!-F5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="1" t="e">
         <f>+F6*$G$1</f>
-        <v>10</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7"/>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="D7"/>
-      <c r="F7" s="4">
-        <f>+F6*0.025</f>
-        <v>0.25</v>
-      </c>
-      <c r="G7" s="1">
-        <f>+F7*$G$1</f>
-        <v>0.25</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7">
+      <c r="A8"/>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="F8" s="4">
-        <v>140</v>
-      </c>
-      <c r="G8" s="1">
-        <f>+F8*$G$1</f>
-        <v>140</v>
-      </c>
+        <f>+C2-C9</f>
+        <v>48.25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>4.9000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
       </c>
       <c r="F9" s="4">
-        <f>+F8*0.035</f>
-        <v>4.9000000000000004</v>
+        <f>+F2*0.035</f>
+        <v>1.7500000000000002</v>
       </c>
       <c r="G9" s="1">
         <f>+F9*$G$1</f>
-        <v>4.9000000000000004</v>
+        <v>1.7500000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -655,25 +689,15 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11"/>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" s="4">
-        <f>+C9-C3-C7</f>
-        <v>1.1500000000000004</v>
-      </c>
-      <c r="F11" s="4">
-        <f>+F9-F3-F7</f>
-        <v>1.1500000000000004</v>
-      </c>
-      <c r="G11" s="1">
-        <f>+F11*$G$1</f>
-        <v>1.1500000000000004</v>
-      </c>
+        <f>+C6-C8</f>
+        <v>10.25</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4">
         <f>+G12</f>
@@ -699,19 +723,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5">
-        <f>+C8-C9-C12</f>
-        <v>134.6</v>
+        <f>+C2-C9-C12</f>
+        <v>47.75</v>
       </c>
       <c r="F15" s="5">
-        <f>+F8-F9-F12</f>
-        <v>134.6</v>
+        <f>+F2-F9-F12</f>
+        <v>47.75</v>
       </c>
       <c r="G15" s="5">
-        <f>+G8-G9-G12</f>
-        <v>134.6</v>
+        <f>+G2-G9-G12</f>
+        <v>47.75</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -722,19 +746,19 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4">
-        <f>+C6+C11+C12</f>
-        <v>11.65</v>
-      </c>
-      <c r="F17" s="4">
-        <f>+F6+F11+F12</f>
-        <v>11.65</v>
-      </c>
-      <c r="G17" s="4">
-        <f>+G6+G11+G12</f>
-        <v>11.65</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="e">
+        <f>+C3+#REF!+C12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="4" t="e">
+        <f>+F3+#REF!+F12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="4" t="e">
+        <f>+G3+#REF!+G12</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -745,19 +769,19 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4">
-        <f>+C17+C15+C3</f>
-        <v>149.75</v>
-      </c>
-      <c r="F19" s="4">
-        <f>+F17+F15+F3</f>
-        <v>149.75</v>
-      </c>
-      <c r="G19" s="4">
-        <f>+G17+G15+G3</f>
-        <v>149.75</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="e">
+        <f>+C17+C15+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F19" s="4" t="e">
+        <f>+F17+F15+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="4" t="e">
+        <f>+G17+G15+#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -765,28 +789,28 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="11">
-        <f>+C9+C12+C6</f>
-        <v>15.4</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="8">
+        <f>+C9+C12+C3</f>
+        <v>12.25</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
         <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="13">
+        <v>21</v>
+      </c>
+      <c r="C23" s="10">
         <f>+C21*C22</f>
-        <v>1.232</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -802,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -838,54 +862,33 @@
       </c>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="K3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="6">
-        <f>+Plan1!C6</f>
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <f>+Plan1!C2</f>
-        <v>150</v>
-      </c>
-      <c r="E4" s="6">
-        <f>+Plan1!C4</f>
-        <v>146.25</v>
-      </c>
-      <c r="H4" s="6">
-        <f>+Plan1!C4</f>
-        <v>146.25</v>
-      </c>
-      <c r="I4" s="15">
-        <f>+L4</f>
-        <v>134.6</v>
-      </c>
-      <c r="L4" s="15">
-        <f>+C10</f>
-        <v>134.6</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="6">
-        <f>+C14</f>
-        <v>3.5</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -894,10 +897,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="6">
-        <f>+Plan1!C7</f>
-        <v>0.25</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -906,61 +906,56 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="6">
-        <f>+Plan1!C12</f>
-        <v>0.5</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="6">
-        <v>1.1499999999999999</v>
-      </c>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <f>SUM(B4:B8)</f>
-        <v>15.4</v>
-      </c>
-      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
         <f>SUM(C4:C8)</f>
-        <v>150</v>
-      </c>
-      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
         <f>SUM(E4:E8)</f>
-        <v>146.25</v>
-      </c>
-      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
         <f>SUM(F4:F8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f>SUM(H4:H8)</f>
-        <v>146.25</v>
-      </c>
-      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
         <f>SUM(I4:I8)</f>
-        <v>134.6</v>
-      </c>
-      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <f>SUM(K4:K8)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <f>SUM(L4:L8)</f>
-        <v>134.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="C10" s="6">
         <f>+C9-B9</f>
-        <v>134.6</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="H10" s="6">
         <f>+H9-I9</f>
-        <v>11.650000000000006</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6"/>
       <c r="L10" s="6"/>
@@ -1001,104 +996,86 @@
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="15"/>
+      <c r="H13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="H13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="K13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="N13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" s="10"/>
+      <c r="I13" s="13"/>
+      <c r="K13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="N13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="C14" s="6">
-        <f>+Plan1!C3</f>
-        <v>3.5</v>
-      </c>
-      <c r="E14" s="6">
-        <f>+Plan1!C9</f>
-        <v>4.9000000000000004</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6">
-        <f>+B4</f>
-        <v>10</v>
-      </c>
-      <c r="L14" s="6">
-        <f>+Plan1!C12</f>
-        <v>0.5</v>
-      </c>
-      <c r="O14" s="6">
-        <f>+Plan1!C11</f>
-        <v>1.1500000000000004</v>
-      </c>
+      <c r="I14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="C15" s="6">
-        <f>+Plan1!C7</f>
-        <v>0.25</v>
-      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <f>SUM(B14:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <f>SUM(C14:C18)</f>
-        <v>3.75</v>
-      </c>
-      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
         <f>SUM(E14:E18)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <f>SUM(F14:F18)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f>SUM(H14:H18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>SUM(I14:I18)</f>
-        <v>10</v>
-      </c>
-      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
         <f>SUM(K14:K18)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <f>SUM(L14:L18)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
         <f>SUM(N14:N18)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <f>SUM(O14:O18)</f>
-        <v>1.1500000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="M23" s="14"/>
+      <c r="M23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
